--- a/Projects/MunchieProject/Data/Revenue.xlsx
+++ b/Projects/MunchieProject/Data/Revenue.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Mischa-BIO\Projects\MunchieProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\GitHub\Mischa-BIO\Projects\MunchieProject\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD02C51B-B8AC-4B46-BD6C-A7340E99746B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64827B63-CB9B-4221-8DAB-5B333BC10078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="966" windowWidth="15840" windowHeight="9834" xr2:uid="{32EF5571-EC54-4AE6-8D6A-861B92C73A64}"/>
+    <workbookView xWindow="1464" yWindow="966" windowWidth="15840" windowHeight="9834" xr2:uid="{32EF5571-EC54-4AE6-8D6A-861B92C73A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Revenue" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -200,9 +200,9 @@
       <sheetName val="Ledger"/>
       <sheetName val="Receipts"/>
       <sheetName val="Expences"/>
+      <sheetName val="Menu"/>
       <sheetName val="Revenue"/>
       <sheetName val="Sales by ticket"/>
-      <sheetName val="Menu"/>
       <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
@@ -517,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B1EEF3D-4907-4EC2-95E4-C110BB454E65}">
-  <dimension ref="A1:E854"/>
+  <dimension ref="A1:E1048"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A907" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" cm="1">
-        <f t="array" ref="A2:E854">[1]!Table2[#Data]</f>
+        <f t="array" ref="A2:E1048">[1]!Table2[#Data]</f>
         <v>45159</v>
       </c>
       <c r="B2" t="str">
@@ -15045,6 +15045,3304 @@
       </c>
       <c r="E854">
         <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A855" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B855" t="str">
+        <v>1714-19</v>
+      </c>
+      <c r="C855" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D855">
+        <v>1</v>
+      </c>
+      <c r="E855">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A856" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B856" t="str">
+        <v>1714-20</v>
+      </c>
+      <c r="C856" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D856">
+        <v>2</v>
+      </c>
+      <c r="E856">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A857" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B857" t="str">
+        <v>1714-21</v>
+      </c>
+      <c r="C857" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D857">
+        <v>1</v>
+      </c>
+      <c r="E857">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A858" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B858" t="str">
+        <v>1714-22</v>
+      </c>
+      <c r="C858" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D858">
+        <v>1</v>
+      </c>
+      <c r="E858">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A859" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B859" t="str">
+        <v>1714-23</v>
+      </c>
+      <c r="C859" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D859">
+        <v>1</v>
+      </c>
+      <c r="E859">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A860" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B860" t="str">
+        <v>1714-24</v>
+      </c>
+      <c r="C860" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D860">
+        <v>1</v>
+      </c>
+      <c r="E860">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A861" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B861" t="str">
+        <v>1714-25</v>
+      </c>
+      <c r="C861" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D861">
+        <v>1</v>
+      </c>
+      <c r="E861">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A862" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B862" t="str">
+        <v>1714-25</v>
+      </c>
+      <c r="C862" t="str">
+        <v>W/Fries</v>
+      </c>
+      <c r="D862">
+        <v>1</v>
+      </c>
+      <c r="E862">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A863" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B863" t="str">
+        <v>1714-26</v>
+      </c>
+      <c r="C863" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D863">
+        <v>1</v>
+      </c>
+      <c r="E863">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A864" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B864" t="str">
+        <v>1714-27</v>
+      </c>
+      <c r="C864" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D864">
+        <v>1</v>
+      </c>
+      <c r="E864">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A865" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B865" t="str">
+        <v>1714-27</v>
+      </c>
+      <c r="C865" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D865">
+        <v>1</v>
+      </c>
+      <c r="E865">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A866" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B866" t="str">
+        <v>1714-28</v>
+      </c>
+      <c r="C866" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D866">
+        <v>1</v>
+      </c>
+      <c r="E866">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A867" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B867" t="str">
+        <v>1714-28</v>
+      </c>
+      <c r="C867" t="str">
+        <v>W/Fries</v>
+      </c>
+      <c r="D867">
+        <v>1</v>
+      </c>
+      <c r="E867">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A868" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B868" t="str">
+        <v>1714-29</v>
+      </c>
+      <c r="C868" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D868">
+        <v>1</v>
+      </c>
+      <c r="E868">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A869" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B869" t="str">
+        <v>1714-30</v>
+      </c>
+      <c r="C869" t="str">
+        <v>10Tenders</v>
+      </c>
+      <c r="D869">
+        <v>1</v>
+      </c>
+      <c r="E869">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A870" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B870" t="str">
+        <v>1714-31</v>
+      </c>
+      <c r="C870" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D870">
+        <v>1</v>
+      </c>
+      <c r="E870">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A871" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B871" t="str">
+        <v>1714-32</v>
+      </c>
+      <c r="C871" t="str">
+        <v>Philly</v>
+      </c>
+      <c r="D871">
+        <v>5</v>
+      </c>
+      <c r="E871">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A872" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B872" t="str">
+        <v>1714-32</v>
+      </c>
+      <c r="C872" t="str">
+        <v>3Wings</v>
+      </c>
+      <c r="D872">
+        <v>1</v>
+      </c>
+      <c r="E872">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A873" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B873" t="str">
+        <v>1714-32</v>
+      </c>
+      <c r="C873" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D873">
+        <v>1</v>
+      </c>
+      <c r="E873">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A874" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B874" t="str">
+        <v>1714-33</v>
+      </c>
+      <c r="C874" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D874">
+        <v>1</v>
+      </c>
+      <c r="E874">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A875" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B875" t="str">
+        <v>1714-33</v>
+      </c>
+      <c r="C875" t="str">
+        <v>W/Fries</v>
+      </c>
+      <c r="D875">
+        <v>1</v>
+      </c>
+      <c r="E875">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A876" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B876" t="str">
+        <v>1714-34</v>
+      </c>
+      <c r="C876" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D876">
+        <v>1</v>
+      </c>
+      <c r="E876">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A877" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B877" t="str">
+        <v>1714-34</v>
+      </c>
+      <c r="C877" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D877">
+        <v>1</v>
+      </c>
+      <c r="E877">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A878" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B878" t="str">
+        <v>1714-34</v>
+      </c>
+      <c r="C878" t="str">
+        <v>tenders</v>
+      </c>
+      <c r="D878">
+        <v>6</v>
+      </c>
+      <c r="E878">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A879" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B879" t="str">
+        <v>1714-35</v>
+      </c>
+      <c r="C879" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D879">
+        <v>1</v>
+      </c>
+      <c r="E879">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A880" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B880" t="str">
+        <v>1714-35</v>
+      </c>
+      <c r="C880" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D880">
+        <v>1</v>
+      </c>
+      <c r="E880">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A881" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B881" t="str">
+        <v>1714-36</v>
+      </c>
+      <c r="C881" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D881">
+        <v>1</v>
+      </c>
+      <c r="E881">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A882" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B882" t="str">
+        <v>1714-36</v>
+      </c>
+      <c r="C882" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D882">
+        <v>1</v>
+      </c>
+      <c r="E882">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A883" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B883" t="str">
+        <v>1714-37</v>
+      </c>
+      <c r="C883" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D883">
+        <v>1</v>
+      </c>
+      <c r="E883">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A884" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B884" t="str">
+        <v>1714-38</v>
+      </c>
+      <c r="C884" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D884">
+        <v>1</v>
+      </c>
+      <c r="E884">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A885" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B885" t="str">
+        <v>1714-38</v>
+      </c>
+      <c r="C885" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D885">
+        <v>1</v>
+      </c>
+      <c r="E885">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A886" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B886" t="str">
+        <v>1714-39</v>
+      </c>
+      <c r="C886" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D886">
+        <v>1</v>
+      </c>
+      <c r="E886">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A887" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B887" t="str">
+        <v>1714-39</v>
+      </c>
+      <c r="C887" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D887">
+        <v>1</v>
+      </c>
+      <c r="E887">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A888" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B888" t="str">
+        <v>1714-40</v>
+      </c>
+      <c r="C888" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D888">
+        <v>1</v>
+      </c>
+      <c r="E888">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A889" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B889" t="str">
+        <v>1714-41</v>
+      </c>
+      <c r="C889" t="str">
+        <v>3Wings</v>
+      </c>
+      <c r="D889">
+        <v>2</v>
+      </c>
+      <c r="E889">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A890" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B890" t="str">
+        <v>1714-42</v>
+      </c>
+      <c r="C890" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D890">
+        <v>1</v>
+      </c>
+      <c r="E890">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A891" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B891" t="str">
+        <v>1714-42</v>
+      </c>
+      <c r="C891" t="str">
+        <v>Add-SAU</v>
+      </c>
+      <c r="D891">
+        <v>2</v>
+      </c>
+      <c r="E891">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A892" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B892" t="str">
+        <v>1714-43</v>
+      </c>
+      <c r="C892" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D892">
+        <v>1</v>
+      </c>
+      <c r="E892">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A893" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B893" t="str">
+        <v>1714-43</v>
+      </c>
+      <c r="C893" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D893">
+        <v>2</v>
+      </c>
+      <c r="E893">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A894" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B894" t="str">
+        <v>1714-43</v>
+      </c>
+      <c r="C894" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D894">
+        <v>1</v>
+      </c>
+      <c r="E894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A895" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B895" t="str">
+        <v>1714-44</v>
+      </c>
+      <c r="C895" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D895">
+        <v>1</v>
+      </c>
+      <c r="E895">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A896" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B896" t="str">
+        <v>1714-45</v>
+      </c>
+      <c r="C896" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D896">
+        <v>1</v>
+      </c>
+      <c r="E896">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A897" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B897" t="str">
+        <v>1714-45</v>
+      </c>
+      <c r="C897" t="str">
+        <v>nacho</v>
+      </c>
+      <c r="D897">
+        <v>1</v>
+      </c>
+      <c r="E897">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A898" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B898" t="str">
+        <v>1714-46</v>
+      </c>
+      <c r="C898" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D898">
+        <v>2</v>
+      </c>
+      <c r="E898">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A899" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B899" t="str">
+        <v>1714-46</v>
+      </c>
+      <c r="C899" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D899">
+        <v>1</v>
+      </c>
+      <c r="E899">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A900" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B900" t="str">
+        <v>1714-47</v>
+      </c>
+      <c r="C900" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D900">
+        <v>1</v>
+      </c>
+      <c r="E900">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A901" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B901" t="str">
+        <v>1714-48</v>
+      </c>
+      <c r="C901" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D901">
+        <v>1</v>
+      </c>
+      <c r="E901">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A902" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B902" t="str">
+        <v>1714-49</v>
+      </c>
+      <c r="C902" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D902">
+        <v>1</v>
+      </c>
+      <c r="E902">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A903" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B903" t="str">
+        <v>1714-50</v>
+      </c>
+      <c r="C903" t="str">
+        <v>N/Philly</v>
+      </c>
+      <c r="D903">
+        <v>1</v>
+      </c>
+      <c r="E903">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A904" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B904" t="str">
+        <v>1714-50</v>
+      </c>
+      <c r="C904" t="str">
+        <v>Add-SCHE</v>
+      </c>
+      <c r="D904">
+        <v>1</v>
+      </c>
+      <c r="E904">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A905" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B905" t="str">
+        <v>2713-1</v>
+      </c>
+      <c r="C905" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D905">
+        <v>1</v>
+      </c>
+      <c r="E905">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A906" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B906" t="str">
+        <v>2713-2</v>
+      </c>
+      <c r="C906" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D906">
+        <v>1</v>
+      </c>
+      <c r="E906">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A907" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B907" t="str">
+        <v>2713-3</v>
+      </c>
+      <c r="C907" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D907">
+        <v>1</v>
+      </c>
+      <c r="E907">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A908" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B908" t="str">
+        <v>2713-3</v>
+      </c>
+      <c r="C908" t="str">
+        <v>CHBurger</v>
+      </c>
+      <c r="D908">
+        <v>1</v>
+      </c>
+      <c r="E908">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A909" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B909" t="str">
+        <v>2713-3</v>
+      </c>
+      <c r="C909" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D909">
+        <v>1</v>
+      </c>
+      <c r="E909">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A910" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B910" t="str">
+        <v>2713-4</v>
+      </c>
+      <c r="C910" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D910">
+        <v>1</v>
+      </c>
+      <c r="E910">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A911" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B911" t="str">
+        <v>2713-5</v>
+      </c>
+      <c r="C911" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D911">
+        <v>1</v>
+      </c>
+      <c r="E911">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A912" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B912" t="str">
+        <v>2713-6</v>
+      </c>
+      <c r="C912" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D912">
+        <v>1</v>
+      </c>
+      <c r="E912">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A913" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B913" t="str">
+        <v>2713-7</v>
+      </c>
+      <c r="C913" t="str">
+        <v>Philly</v>
+      </c>
+      <c r="D913">
+        <v>2</v>
+      </c>
+      <c r="E913">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A914" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B914" t="str">
+        <v>2713-8</v>
+      </c>
+      <c r="C914" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D914">
+        <v>1</v>
+      </c>
+      <c r="E914">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A915" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B915" t="str">
+        <v>2713-9</v>
+      </c>
+      <c r="C915" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D915">
+        <v>1</v>
+      </c>
+      <c r="E915">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A916" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B916" t="str">
+        <v>2713-10</v>
+      </c>
+      <c r="C916" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D916">
+        <v>2</v>
+      </c>
+      <c r="E916">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A917" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B917" t="str">
+        <v>2713-11</v>
+      </c>
+      <c r="C917" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D917">
+        <v>1</v>
+      </c>
+      <c r="E917">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A918" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B918" t="str">
+        <v>2713-11</v>
+      </c>
+      <c r="C918" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D918">
+        <v>2</v>
+      </c>
+      <c r="E918">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A919" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B919" t="str">
+        <v>2713-12</v>
+      </c>
+      <c r="C919" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D919">
+        <v>1</v>
+      </c>
+      <c r="E919">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A920" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B920" t="str">
+        <v>2713-13</v>
+      </c>
+      <c r="C920" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D920">
+        <v>1</v>
+      </c>
+      <c r="E920">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A921" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B921" t="str">
+        <v>2713-14</v>
+      </c>
+      <c r="C921" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D921">
+        <v>1</v>
+      </c>
+      <c r="E921">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A922" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B922" t="str">
+        <v>2713-14</v>
+      </c>
+      <c r="C922" t="str">
+        <v>Add-SCHE</v>
+      </c>
+      <c r="D922">
+        <v>1</v>
+      </c>
+      <c r="E922">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A923" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B923" t="str">
+        <v>2713-15</v>
+      </c>
+      <c r="C923" t="str">
+        <v>Philly</v>
+      </c>
+      <c r="D923">
+        <v>1</v>
+      </c>
+      <c r="E923">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A924" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B924" t="str">
+        <v>2713-15</v>
+      </c>
+      <c r="C924" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D924">
+        <v>1</v>
+      </c>
+      <c r="E924">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A925" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B925" t="str">
+        <v>2713-15</v>
+      </c>
+      <c r="C925" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D925">
+        <v>1</v>
+      </c>
+      <c r="E925">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A926" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B926" t="str">
+        <v>2713-16</v>
+      </c>
+      <c r="C926" t="str">
+        <v>Wings</v>
+      </c>
+      <c r="D926">
+        <v>11</v>
+      </c>
+      <c r="E926">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A927" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B927" t="str">
+        <v>2713-16</v>
+      </c>
+      <c r="C927" t="str">
+        <v>L/Fries</v>
+      </c>
+      <c r="D927">
+        <v>1</v>
+      </c>
+      <c r="E927">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A928" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B928" t="str">
+        <v>2713-17</v>
+      </c>
+      <c r="C928" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D928">
+        <v>3</v>
+      </c>
+      <c r="E928">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A929" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B929" t="str">
+        <v>2713-18</v>
+      </c>
+      <c r="C929" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D929">
+        <v>1</v>
+      </c>
+      <c r="E929">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A930" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B930" t="str">
+        <v>2713-18</v>
+      </c>
+      <c r="C930" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D930">
+        <v>1</v>
+      </c>
+      <c r="E930">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A931" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B931" t="str">
+        <v>2713-19</v>
+      </c>
+      <c r="C931" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D931">
+        <v>1</v>
+      </c>
+      <c r="E931">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A932" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B932" t="str">
+        <v>2713-20</v>
+      </c>
+      <c r="C932" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D932">
+        <v>1</v>
+      </c>
+      <c r="E932">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A933" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B933" t="str">
+        <v>2713-20</v>
+      </c>
+      <c r="C933" t="str">
+        <v>Add-SAU</v>
+      </c>
+      <c r="D933">
+        <v>1</v>
+      </c>
+      <c r="E933">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A934" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B934" t="str">
+        <v>2713-21</v>
+      </c>
+      <c r="C934" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D934">
+        <v>3</v>
+      </c>
+      <c r="E934">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A935" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B935" t="str">
+        <v>2713-21</v>
+      </c>
+      <c r="C935" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D935">
+        <v>1</v>
+      </c>
+      <c r="E935">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A936" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B936" t="str">
+        <v>2713-22</v>
+      </c>
+      <c r="C936" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D936">
+        <v>1</v>
+      </c>
+      <c r="E936">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A937" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B937" t="str">
+        <v>2713-23</v>
+      </c>
+      <c r="C937" t="str">
+        <v>tenders</v>
+      </c>
+      <c r="D937">
+        <v>3</v>
+      </c>
+      <c r="E937">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A938" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B938" t="str">
+        <v>2713-23</v>
+      </c>
+      <c r="C938" t="str">
+        <v>tenders</v>
+      </c>
+      <c r="D938">
+        <v>3</v>
+      </c>
+      <c r="E938">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A939" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B939" t="str">
+        <v>2713-25</v>
+      </c>
+      <c r="C939" t="str">
+        <v>Philly</v>
+      </c>
+      <c r="D939">
+        <v>1</v>
+      </c>
+      <c r="E939">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A940" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B940" t="str">
+        <v>2713-26</v>
+      </c>
+      <c r="C940" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D940">
+        <v>1</v>
+      </c>
+      <c r="E940">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A941" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B941" t="str">
+        <v>2713-26</v>
+      </c>
+      <c r="C941" t="str">
+        <v>L/Fries</v>
+      </c>
+      <c r="D941">
+        <v>1</v>
+      </c>
+      <c r="E941">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A942" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B942" t="str">
+        <v>2713-27</v>
+      </c>
+      <c r="C942" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D942">
+        <v>1</v>
+      </c>
+      <c r="E942">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A943" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B943" t="str">
+        <v>2713-28</v>
+      </c>
+      <c r="C943" t="str">
+        <v>3Wings</v>
+      </c>
+      <c r="D943">
+        <v>1</v>
+      </c>
+      <c r="E943">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A944" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B944" t="str">
+        <v>2713-29</v>
+      </c>
+      <c r="C944" t="str">
+        <v>3Wings</v>
+      </c>
+      <c r="D944">
+        <v>1</v>
+      </c>
+      <c r="E944">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A945" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B945" t="str">
+        <v>2713-30</v>
+      </c>
+      <c r="C945" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D945">
+        <v>1</v>
+      </c>
+      <c r="E945">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A946" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B946" t="str">
+        <v>2713-31</v>
+      </c>
+      <c r="C946" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D946">
+        <v>1</v>
+      </c>
+      <c r="E946">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A947" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B947" t="str">
+        <v>2713-31</v>
+      </c>
+      <c r="C947" t="str">
+        <v>L/Fries</v>
+      </c>
+      <c r="D947">
+        <v>1</v>
+      </c>
+      <c r="E947">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A948" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B948" t="str">
+        <v>2713-32</v>
+      </c>
+      <c r="C948" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D948">
+        <v>1</v>
+      </c>
+      <c r="E948">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A949" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B949" t="str">
+        <v>2713-32</v>
+      </c>
+      <c r="C949" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D949">
+        <v>1</v>
+      </c>
+      <c r="E949">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A950" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B950" t="str">
+        <v>2713-33</v>
+      </c>
+      <c r="C950" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D950">
+        <v>1</v>
+      </c>
+      <c r="E950">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A951" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B951" t="str">
+        <v>2713-34</v>
+      </c>
+      <c r="C951" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D951">
+        <v>1</v>
+      </c>
+      <c r="E951">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A952" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B952" t="str">
+        <v>2713-35</v>
+      </c>
+      <c r="C952" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D952">
+        <v>1</v>
+      </c>
+      <c r="E952">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A953" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B953" t="str">
+        <v>2713-35</v>
+      </c>
+      <c r="C953" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D953">
+        <v>1</v>
+      </c>
+      <c r="E953">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A954" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B954" t="str">
+        <v>2713-36</v>
+      </c>
+      <c r="C954" t="str">
+        <v>Tenders</v>
+      </c>
+      <c r="D954">
+        <v>10</v>
+      </c>
+      <c r="E954">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A955" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B955" t="str">
+        <v>2713-37</v>
+      </c>
+      <c r="C955" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D955">
+        <v>1</v>
+      </c>
+      <c r="E955">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A956" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B956" t="str">
+        <v>2713-37</v>
+      </c>
+      <c r="C956" t="str">
+        <v>tenders</v>
+      </c>
+      <c r="D956">
+        <v>3</v>
+      </c>
+      <c r="E956">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A957" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B957" t="str">
+        <v>2713-38</v>
+      </c>
+      <c r="C957" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D957">
+        <v>1</v>
+      </c>
+      <c r="E957">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A958" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B958" t="str">
+        <v>2713-39</v>
+      </c>
+      <c r="C958" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D958">
+        <v>1</v>
+      </c>
+      <c r="E958">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A959" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B959" t="str">
+        <v>2713-40</v>
+      </c>
+      <c r="C959" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D959">
+        <v>1</v>
+      </c>
+      <c r="E959">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A960" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B960" t="str">
+        <v>2713-41</v>
+      </c>
+      <c r="C960" t="str">
+        <v>10Tenders</v>
+      </c>
+      <c r="D960">
+        <v>1</v>
+      </c>
+      <c r="E960">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A961" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B961" t="str">
+        <v>2713-41</v>
+      </c>
+      <c r="C961" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D961">
+        <v>1</v>
+      </c>
+      <c r="E961">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A962" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B962" t="str">
+        <v>2713-41</v>
+      </c>
+      <c r="C962" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D962">
+        <v>2</v>
+      </c>
+      <c r="E962">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A963" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B963" t="str">
+        <v>2713-41</v>
+      </c>
+      <c r="C963" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D963">
+        <v>1</v>
+      </c>
+      <c r="E963">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A964" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B964" t="str">
+        <v>2713-41</v>
+      </c>
+      <c r="C964" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D964">
+        <v>1</v>
+      </c>
+      <c r="E964">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A965" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B965" t="str">
+        <v>2713-42</v>
+      </c>
+      <c r="C965" t="str">
+        <v>3Wings</v>
+      </c>
+      <c r="D965">
+        <v>2</v>
+      </c>
+      <c r="E965">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A966" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B966" t="str">
+        <v>2713-43</v>
+      </c>
+      <c r="C966" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D966">
+        <v>1</v>
+      </c>
+      <c r="E966">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A967" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B967" t="str">
+        <v>2713-44</v>
+      </c>
+      <c r="C967" t="str">
+        <v>nacho</v>
+      </c>
+      <c r="D967">
+        <v>1</v>
+      </c>
+      <c r="E967">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A968" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B968" t="str">
+        <v>2713-44</v>
+      </c>
+      <c r="C968" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D968">
+        <v>1</v>
+      </c>
+      <c r="E968">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A969" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B969" t="str">
+        <v>2713-45</v>
+      </c>
+      <c r="C969" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D969">
+        <v>1</v>
+      </c>
+      <c r="E969">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A970" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B970" t="str">
+        <v>2713-46</v>
+      </c>
+      <c r="C970" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D970">
+        <v>1</v>
+      </c>
+      <c r="E970">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A971" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B971" t="str">
+        <v>2713-47</v>
+      </c>
+      <c r="C971" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D971">
+        <v>1</v>
+      </c>
+      <c r="E971">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A972" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B972" t="str">
+        <v>2713-48</v>
+      </c>
+      <c r="C972" t="str">
+        <v>Philly</v>
+      </c>
+      <c r="D972">
+        <v>1</v>
+      </c>
+      <c r="E972">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A973" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B973" t="str">
+        <v>2713-49</v>
+      </c>
+      <c r="C973" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D973">
+        <v>1</v>
+      </c>
+      <c r="E973">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A974" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B974" t="str">
+        <v>2713-50</v>
+      </c>
+      <c r="C974" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D974">
+        <v>1</v>
+      </c>
+      <c r="E974">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A975" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B975" t="str">
+        <v>2713-50</v>
+      </c>
+      <c r="C975" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D975">
+        <v>1</v>
+      </c>
+      <c r="E975">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A976" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B976" t="str">
+        <v>2714-1</v>
+      </c>
+      <c r="C976" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D976">
+        <v>1</v>
+      </c>
+      <c r="E976">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A977" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B977" t="str">
+        <v>2714-2</v>
+      </c>
+      <c r="C977" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D977">
+        <v>1</v>
+      </c>
+      <c r="E977">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A978" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B978" t="str">
+        <v>2714-2</v>
+      </c>
+      <c r="C978" t="str">
+        <v>Add-SAU</v>
+      </c>
+      <c r="D978">
+        <v>1</v>
+      </c>
+      <c r="E978">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A979" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B979" t="str">
+        <v>2714-3</v>
+      </c>
+      <c r="C979" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D979">
+        <v>1</v>
+      </c>
+      <c r="E979">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A980" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B980" t="str">
+        <v>2714-3</v>
+      </c>
+      <c r="C980" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D980">
+        <v>1</v>
+      </c>
+      <c r="E980">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A981" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B981" t="str">
+        <v>2714-4</v>
+      </c>
+      <c r="C981" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D981">
+        <v>1</v>
+      </c>
+      <c r="E981">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A982" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B982" t="str">
+        <v>2714-4</v>
+      </c>
+      <c r="C982" t="str">
+        <v>Add-SAU</v>
+      </c>
+      <c r="D982">
+        <v>1</v>
+      </c>
+      <c r="E982">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A983" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B983" t="str">
+        <v>2714-4</v>
+      </c>
+      <c r="C983" t="str">
+        <v>Add-Jal</v>
+      </c>
+      <c r="D983">
+        <v>1</v>
+      </c>
+      <c r="E983">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A984" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B984" t="str">
+        <v>2714-5</v>
+      </c>
+      <c r="C984" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D984">
+        <v>1</v>
+      </c>
+      <c r="E984">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A985" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B985" t="str">
+        <v>2714-6</v>
+      </c>
+      <c r="C985" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D985">
+        <v>2</v>
+      </c>
+      <c r="E985">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A986" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B986" t="str">
+        <v>2714-7</v>
+      </c>
+      <c r="C986" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D986">
+        <v>1</v>
+      </c>
+      <c r="E986">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A987" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B987" t="str">
+        <v>2714-8</v>
+      </c>
+      <c r="C987" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D987">
+        <v>1</v>
+      </c>
+      <c r="E987">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A988" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B988" t="str">
+        <v>2714-8</v>
+      </c>
+      <c r="C988" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D988">
+        <v>1</v>
+      </c>
+      <c r="E988">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A989" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B989" t="str">
+        <v>2714-8</v>
+      </c>
+      <c r="C989" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D989">
+        <v>1</v>
+      </c>
+      <c r="E989">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A990" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B990" t="str">
+        <v>2714-9</v>
+      </c>
+      <c r="C990" t="str">
+        <v>L/Fries</v>
+      </c>
+      <c r="D990">
+        <v>1</v>
+      </c>
+      <c r="E990">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A991" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B991" t="str">
+        <v>2714-9</v>
+      </c>
+      <c r="C991" t="str">
+        <v>nacho</v>
+      </c>
+      <c r="D991">
+        <v>1</v>
+      </c>
+      <c r="E991">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A992" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B992" t="str">
+        <v>2714-10</v>
+      </c>
+      <c r="C992" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D992">
+        <v>1</v>
+      </c>
+      <c r="E992">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A993" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B993" t="str">
+        <v>2714-10</v>
+      </c>
+      <c r="C993" t="str">
+        <v>Add-SAU</v>
+      </c>
+      <c r="D993">
+        <v>1</v>
+      </c>
+      <c r="E993">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A994" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B994" t="str">
+        <v>2714-10</v>
+      </c>
+      <c r="C994" t="str">
+        <v>Add-Jal</v>
+      </c>
+      <c r="D994">
+        <v>1</v>
+      </c>
+      <c r="E994">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A995" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B995" t="str">
+        <v>2714-11</v>
+      </c>
+      <c r="C995" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D995">
+        <v>3</v>
+      </c>
+      <c r="E995">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A996" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B996" t="str">
+        <v>2714-12</v>
+      </c>
+      <c r="C996" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D996">
+        <v>1</v>
+      </c>
+      <c r="E996">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A997" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B997" t="str">
+        <v>2714-13</v>
+      </c>
+      <c r="C997" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D997">
+        <v>1</v>
+      </c>
+      <c r="E997">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A998" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B998" t="str">
+        <v>2714-14</v>
+      </c>
+      <c r="C998" t="str">
+        <v>Wings</v>
+      </c>
+      <c r="D998">
+        <v>3</v>
+      </c>
+      <c r="E998">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A999" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B999" t="str">
+        <v>2714-15</v>
+      </c>
+      <c r="C999" t="str">
+        <v>nacho</v>
+      </c>
+      <c r="D999">
+        <v>1</v>
+      </c>
+      <c r="E999">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1000" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1000" t="str">
+        <v>2714-15</v>
+      </c>
+      <c r="C1000" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D1000">
+        <v>1</v>
+      </c>
+      <c r="E1000">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1001" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1001" t="str">
+        <v>2714-16</v>
+      </c>
+      <c r="C1001" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D1001">
+        <v>2</v>
+      </c>
+      <c r="E1001">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1002" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1002" t="str">
+        <v>2714-16</v>
+      </c>
+      <c r="C1002" t="str">
+        <v>Add-SAU</v>
+      </c>
+      <c r="D1002">
+        <v>1</v>
+      </c>
+      <c r="E1002">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1003" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1003" t="str">
+        <v>2714-17</v>
+      </c>
+      <c r="C1003" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D1003">
+        <v>2</v>
+      </c>
+      <c r="E1003">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1004" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1004" t="str">
+        <v>2714-17</v>
+      </c>
+      <c r="C1004" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D1004">
+        <v>1</v>
+      </c>
+      <c r="E1004">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1005" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1005" t="str">
+        <v>2714-18</v>
+      </c>
+      <c r="C1005" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D1005">
+        <v>1</v>
+      </c>
+      <c r="E1005">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1006" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1006" t="str">
+        <v>2714-19</v>
+      </c>
+      <c r="C1006" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1006">
+        <v>1</v>
+      </c>
+      <c r="E1006">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1007" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1007" t="str">
+        <v>2714-20</v>
+      </c>
+      <c r="C1007" t="str">
+        <v>Fries-CHE</v>
+      </c>
+      <c r="D1007">
+        <v>1</v>
+      </c>
+      <c r="E1007">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1008" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1008" t="str">
+        <v>2714-21</v>
+      </c>
+      <c r="C1008" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1008">
+        <v>1</v>
+      </c>
+      <c r="E1008">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1009" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1009" t="str">
+        <v>2714-21</v>
+      </c>
+      <c r="C1009" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D1009">
+        <v>1</v>
+      </c>
+      <c r="E1009">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1010" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1010" t="str">
+        <v>2714-22</v>
+      </c>
+      <c r="C1010" t="str">
+        <v>3Wings</v>
+      </c>
+      <c r="D1010">
+        <v>1</v>
+      </c>
+      <c r="E1010">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1011" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1011" t="str">
+        <v>2714-23</v>
+      </c>
+      <c r="C1011" t="str">
+        <v>ChBurger</v>
+      </c>
+      <c r="D1011">
+        <v>1</v>
+      </c>
+      <c r="E1011">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1012" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1012" t="str">
+        <v>2714-23</v>
+      </c>
+      <c r="C1012" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D1012">
+        <v>1</v>
+      </c>
+      <c r="E1012">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1013" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1013" t="str">
+        <v>2714-24</v>
+      </c>
+      <c r="C1013" t="str">
+        <v>ChBurger</v>
+      </c>
+      <c r="D1013">
+        <v>1</v>
+      </c>
+      <c r="E1013">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1014" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1014" t="str">
+        <v>2714-24</v>
+      </c>
+      <c r="C1014" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D1014">
+        <v>1</v>
+      </c>
+      <c r="E1014">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1015" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1015" t="str">
+        <v>2714-25</v>
+      </c>
+      <c r="C1015" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D1015">
+        <v>1</v>
+      </c>
+      <c r="E1015">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1016" s="4">
+        <v>45199</v>
+      </c>
+      <c r="B1016" t="str">
+        <v>2714-26</v>
+      </c>
+      <c r="C1016" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D1016">
+        <v>1</v>
+      </c>
+      <c r="E1016">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1017" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1017" t="str">
+        <v>2714-27</v>
+      </c>
+      <c r="C1017" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1017">
+        <v>1</v>
+      </c>
+      <c r="E1017">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1018" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1018" t="str">
+        <v>2714-28</v>
+      </c>
+      <c r="C1018" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D1018">
+        <v>1</v>
+      </c>
+      <c r="E1018">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1019" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1019" t="str">
+        <v>2714-29</v>
+      </c>
+      <c r="C1019" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D1019">
+        <v>1</v>
+      </c>
+      <c r="E1019">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1020" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1020" t="str">
+        <v>2714-30</v>
+      </c>
+      <c r="C1020" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D1020">
+        <v>1</v>
+      </c>
+      <c r="E1020">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1021" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1021" t="str">
+        <v>2714-31</v>
+      </c>
+      <c r="C1021" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D1021">
+        <v>1</v>
+      </c>
+      <c r="E1021">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1022" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1022" t="str">
+        <v>2714-32</v>
+      </c>
+      <c r="C1022" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1022">
+        <v>1</v>
+      </c>
+      <c r="E1022">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1023" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1023" t="str">
+        <v>2714-33</v>
+      </c>
+      <c r="C1023" t="str">
+        <v>tenders</v>
+      </c>
+      <c r="D1023">
+        <v>3</v>
+      </c>
+      <c r="E1023">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1024" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1024" t="str">
+        <v>2714-33</v>
+      </c>
+      <c r="C1024" t="str">
+        <v>L/Fries</v>
+      </c>
+      <c r="D1024">
+        <v>1</v>
+      </c>
+      <c r="E1024">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1025" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1025" t="str">
+        <v>2714-33</v>
+      </c>
+      <c r="C1025" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D1025">
+        <v>1</v>
+      </c>
+      <c r="E1025">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1026" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1026" t="str">
+        <v>2714-33</v>
+      </c>
+      <c r="C1026" t="str">
+        <v>Add-SCHE</v>
+      </c>
+      <c r="D1026">
+        <v>1</v>
+      </c>
+      <c r="E1026">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1027" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1027" t="str">
+        <v>2714-34</v>
+      </c>
+      <c r="C1027" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D1027">
+        <v>1</v>
+      </c>
+      <c r="E1027">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1028" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1028" t="str">
+        <v>2714-35</v>
+      </c>
+      <c r="C1028" t="str">
+        <v>L/Nacho</v>
+      </c>
+      <c r="D1028">
+        <v>1</v>
+      </c>
+      <c r="E1028">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1029" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1029" t="str">
+        <v>2714-36</v>
+      </c>
+      <c r="C1029" t="str">
+        <v>3Tenders</v>
+      </c>
+      <c r="D1029">
+        <v>1</v>
+      </c>
+      <c r="E1029">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1030" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1030" t="str">
+        <v>2714-37</v>
+      </c>
+      <c r="C1030" t="str">
+        <v>tenders</v>
+      </c>
+      <c r="D1030">
+        <v>6</v>
+      </c>
+      <c r="E1030">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1031" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1031" t="str">
+        <v>2714-38</v>
+      </c>
+      <c r="C1031" t="str">
+        <v>CBurger</v>
+      </c>
+      <c r="D1031">
+        <v>2</v>
+      </c>
+      <c r="E1031">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1032" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1032" t="str">
+        <v>2714-38</v>
+      </c>
+      <c r="C1032" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D1032">
+        <v>2</v>
+      </c>
+      <c r="E1032">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1033" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1033" t="str">
+        <v>2714-39</v>
+      </c>
+      <c r="C1033" t="str">
+        <v>13Lumpia</v>
+      </c>
+      <c r="D1033">
+        <v>2</v>
+      </c>
+      <c r="E1033">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1034" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1034" t="str">
+        <v>2714-40</v>
+      </c>
+      <c r="C1034" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D1034">
+        <v>1</v>
+      </c>
+      <c r="E1034">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1035" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1035" t="str">
+        <v>2714-40</v>
+      </c>
+      <c r="C1035" t="str">
+        <v>fries</v>
+      </c>
+      <c r="D1035">
+        <v>1</v>
+      </c>
+      <c r="E1035">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1036" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1036" t="str">
+        <v>2714-40</v>
+      </c>
+      <c r="C1036" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1036">
+        <v>1</v>
+      </c>
+      <c r="E1036">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1037" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1037" t="str">
+        <v>2714-41</v>
+      </c>
+      <c r="C1037" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D1037">
+        <v>1</v>
+      </c>
+      <c r="E1037">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1038" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1038" t="str">
+        <v>2714-42</v>
+      </c>
+      <c r="C1038" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1038">
+        <v>1</v>
+      </c>
+      <c r="E1038">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1039" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1039" t="str">
+        <v>2714-43</v>
+      </c>
+      <c r="C1039" t="str">
+        <v>6Wings</v>
+      </c>
+      <c r="D1039">
+        <v>1</v>
+      </c>
+      <c r="E1039">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1040" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1040" t="str">
+        <v>2714-44</v>
+      </c>
+      <c r="C1040" t="str">
+        <v>10Wings</v>
+      </c>
+      <c r="D1040">
+        <v>1</v>
+      </c>
+      <c r="E1040">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1041" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1041" t="str">
+        <v>2714-45</v>
+      </c>
+      <c r="C1041" t="str">
+        <v>Tenders</v>
+      </c>
+      <c r="D1041">
+        <v>3</v>
+      </c>
+      <c r="E1041">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1042" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1042" t="str">
+        <v>2714-46</v>
+      </c>
+      <c r="C1042" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D1042">
+        <v>1</v>
+      </c>
+      <c r="E1042">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1043" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1043" t="str">
+        <v>2714-46</v>
+      </c>
+      <c r="C1043" t="str">
+        <v>Wings</v>
+      </c>
+      <c r="D1043">
+        <v>4</v>
+      </c>
+      <c r="E1043">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1044" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1044" t="str">
+        <v>2714-46</v>
+      </c>
+      <c r="C1044" t="str">
+        <v>Fries</v>
+      </c>
+      <c r="D1044">
+        <v>1</v>
+      </c>
+      <c r="E1044">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1045" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1045" t="str">
+        <v>2714-46</v>
+      </c>
+      <c r="C1045" t="str">
+        <v>4Lumpias</v>
+      </c>
+      <c r="D1045">
+        <v>1</v>
+      </c>
+      <c r="E1045">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1046" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1046" t="str">
+        <v>2714-47</v>
+      </c>
+      <c r="C1046" t="str">
+        <v>6tenders</v>
+      </c>
+      <c r="D1046">
+        <v>1</v>
+      </c>
+      <c r="E1046">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1047" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1047" t="str">
+        <v>2714-48</v>
+      </c>
+      <c r="C1047" t="str">
+        <v>Burger</v>
+      </c>
+      <c r="D1047">
+        <v>1</v>
+      </c>
+      <c r="E1047">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1048" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1048" t="str">
+        <v>2714-49</v>
+      </c>
+      <c r="C1048" t="str">
+        <v>ParmFries</v>
+      </c>
+      <c r="D1048">
+        <v>1</v>
+      </c>
+      <c r="E1048">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
